--- a/sample_contacts_template.xlsx
+++ b/sample_contacts_template.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>name</t>
+    <t>customer_name</t>
   </si>
   <si>
     <t>phone_number</t>
